--- a/car_price_check.xlsx
+++ b/car_price_check.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remle\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remle\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29DEB2DB-441C-4A05-A3E9-8EB61A3B7E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0832884D-02CB-4155-9A89-99ED9CC83468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97F5F9FD-FC64-4C42-B3CE-5E595D9349A8}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>2S Battery</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Motor &amp; ESC</t>
   </si>
@@ -53,21 +50,9 @@
     <t>rc servo 20KG DS3218 or PRO</t>
   </si>
   <si>
-    <t>https://aliexpress.com/item/1005005610788085.html</t>
-  </si>
-  <si>
     <t>wheels</t>
   </si>
   <si>
-    <t>HSP 88005 Monster Truck</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/32748779556.html</t>
-  </si>
-  <si>
-    <t>www.aliexpress.com/item/1005004599082114.html</t>
-  </si>
-  <si>
     <t>shocks (set of 4)</t>
   </si>
   <si>
@@ -77,12 +62,6 @@
     <t>Battery charger</t>
   </si>
   <si>
-    <t>IMAX B6 Lipo Balance Charger</t>
-  </si>
-  <si>
-    <t>https://aliexpress.com/item/1005005028773427.html</t>
-  </si>
-  <si>
     <t>https://botland.com.pl/gravity-akcelerometry-i-zyroskopy/19380-gravity-bmi160-6dof-imu-3-osiowy-akcelerometr-i-zyroskop-dfrobot-sen0250-5904422346485.html</t>
   </si>
   <si>
@@ -92,18 +71,6 @@
     <t>BMI160 6DoF IMU</t>
   </si>
   <si>
-    <t>https://www.amazon.pl/Zeee-Akumulator-7-4V-80C-7200mAh/dp/B07NSTY7SN?th=1</t>
-  </si>
-  <si>
-    <t>Zeee 2S Lipo RC Akumulator 7.4V 80C 7200mAh</t>
-  </si>
-  <si>
-    <t>https://www.rc4max.com/combo-ezrun-max10-g2-80a-3652sd-3300kv-g3</t>
-  </si>
-  <si>
-    <t>&lt;- boli</t>
-  </si>
-  <si>
     <t>CAR</t>
   </si>
   <si>
@@ -117,6 +84,63 @@
   </si>
   <si>
     <t>HIPERLINK</t>
+  </si>
+  <si>
+    <t>https://www.amazon.pl/Zeee-Akumulator-7200mAh-Hardcase-samochodu/dp/B07K43FHXF/ref=sr_1_1?__mk_pl_PL=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2N1SKSZS8L5JZ&amp;keywords=Zeee+3S+LiPo+RC+Akumulator+11.1V+80C+7200mAh&amp;qid=1700087892&amp;sprefix=zeee+3s+lipo+rc+akumulator+11.1v+80c+7200mah%2Caps%2C75&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/cyfrowy-silnik-serwomotor-ms24-uf-6-8v-20kg-rc-14232172852</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/piasta-kola-rc-samochod-metalowy-aluminiowy-zestaw-felg-aluminiowych-12972767713</t>
+  </si>
+  <si>
+    <t>https://rc-team.pl/kola-do-aut-zdalnie-sterowanych/17994-te37-wheel-26mm-black-6mm-offset-4944258038469-3846.html</t>
+  </si>
+  <si>
+    <t>https://www.amazon.pl/INJORA-amortyzator%C3%B3w-Crawler-AXI231017-Traxxas/dp/B08GLYGFKD/ref=sr_1_17?keywords=injora&amp;qid=1700088816&amp;sr=8-17&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://rc-team.pl/ladowarki/88300-ladowarka-b6ac-80w-6a-12v230v-sensor-temp--5907773206408-imax-b6ac.html</t>
+  </si>
+  <si>
+    <t>Zeee 3S Lipo RC Akumulator 7.4V 80C 7200mAh</t>
+  </si>
+  <si>
+    <t>IMAX B6AC Lipo Balance Charger</t>
+  </si>
+  <si>
+    <t>WHEELS</t>
+  </si>
+  <si>
+    <t>Stepdown regulator 12V to 3.3V/5V</t>
+  </si>
+  <si>
+    <t>Stepdown regulator</t>
+  </si>
+  <si>
+    <t>https://elektroweb.pl/step-down/1114-przetwornica-step-down-7-24v-na-33v-5v-9v-12v-5a-5905523303926.html</t>
+  </si>
+  <si>
+    <t>3S Battery</t>
+  </si>
+  <si>
+    <t>https://www.rc4max.com/combo-ezrun-max10-g2-140a-3665sd-3200kv-g3</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/4-sztuki-1-10-1-14-1-18-1-16-rc-kola-opony-14397226123</t>
+  </si>
+  <si>
+    <t>kontroler ps3/4/xbox 360/xbox one</t>
+  </si>
+  <si>
+    <t>płytka esp32 (jeżeli zdecydujemy się używać bluetooth zamiast komunikacji radiowej )</t>
+  </si>
+  <si>
+    <t>dodatkowo potrzebne będą</t>
+  </si>
+  <si>
+    <t>stm32l4</t>
   </si>
 </sst>
 </file>
@@ -172,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -195,12 +219,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -214,9 +249,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -224,6 +256,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -539,157 +579,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50CE6F4-EC58-4C59-933C-2F420C72E1BE}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="146.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="C3" s="3">
+        <v>255</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>740</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>129.99</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C6" s="3">
+        <v>82.94</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3">
-        <v>175.99</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>629</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>52.51</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>96.65</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="4">
         <v>108.16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4">
+        <v>145</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4">
-        <v>115.89</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="4">
         <v>49.5</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="C10">
-        <f>SUM(C3:C9)</f>
-        <v>1227.7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
+        <v>20.81</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>21.81</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://www.aliexpress.com/item/1005005610788085.html" xr:uid="{C6D52CC3-08A9-4C9F-9445-38149FD70728}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{2B8757A6-AF3B-48F6-A3EA-DB1361806BBB}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{2369CAB6-DE30-4BED-9D69-FF626F7AFF71}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{A2A8A867-42B5-493D-9E94-F8D6A8FF6A38}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{95941661-3168-4227-9DBF-814330F85824}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{3C992845-23C0-45C9-8D3A-8C4DA4ECB54E}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{C6D52CC3-08A9-4C9F-9445-38149FD70728}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{2369CAB6-DE30-4BED-9D69-FF626F7AFF71}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{A2A8A867-42B5-493D-9E94-F8D6A8FF6A38}"/>
+    <hyperlink ref="D3" r:id="rId4" display="https://www.amazon.pl/Zeee-Akumulator-7200mAh-Hardcase-samochodu/dp/B07K43FHXF/ref=sr_1_1?__mk_pl_PL=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2N1SKSZS8L5JZ&amp;keywords=Zeee+3S+LiPo+RC+Akumulator+11.1V+80C+7200mAh&amp;qid=1700087892&amp;sprefix=zeee+3s+lipo+rc+akumulator+11.1v+80c+7200mah%2Caps%2C75&amp;sr=8-1" xr:uid="{95941661-3168-4227-9DBF-814330F85824}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{3C992845-23C0-45C9-8D3A-8C4DA4ECB54E}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{6FDD4299-12FE-4FBE-8B8A-A09E8EC12E54}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{857824D3-3542-47AA-8F97-87952F0C8FBA}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{D6198101-28CD-4856-9A44-BAB8CEEFE86D}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{85DAED96-1A63-41C1-9C49-C9CAE24ED0B1}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{3459CF10-CF1C-49D1-AFA3-0220EB23552C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>